--- a/Data/Hashtags.xlsx
+++ b/Data/Hashtags.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s157165\Documents\Jaar 5 2019-2020 Master\Internship Australia\InternshipOneOnEpsilon\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0700392-EB25-471E-B833-9EB876897FBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BCA449-4C89-404E-BE09-C23A3ACC324B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49AAED32-6047-4E00-A740-58F37E52ED09}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="1586">
   <si>
     <t>Trigonometry</t>
   </si>
@@ -2428,6 +2429,2367 @@
   </si>
   <si>
     <t>fractionsubtraction</t>
+  </si>
+  <si>
+    <t>#arc</t>
+  </si>
+  <si>
+    <t>#antiderivative</t>
+  </si>
+  <si>
+    <t>#absoluteValueEquations</t>
+  </si>
+  <si>
+    <t>#acuteAngle</t>
+  </si>
+  <si>
+    <t>#arithmeticMean</t>
+  </si>
+  <si>
+    <t>#1729</t>
+  </si>
+  <si>
+    <t>#contrapositive</t>
+  </si>
+  <si>
+    <t>#contradiction</t>
+  </si>
+  <si>
+    <t>#bearing</t>
+  </si>
+  <si>
+    <t>#abelMathematician</t>
+  </si>
+  <si>
+    <t>#ed-addition</t>
+  </si>
+  <si>
+    <t>#achillesAndTheTortoise</t>
+  </si>
+  <si>
+    <t>#computation</t>
+  </si>
+  <si>
+    <t>#gameTheory</t>
+  </si>
+  <si>
+    <t>#arccos</t>
+  </si>
+  <si>
+    <t>#averageVelocity</t>
+  </si>
+  <si>
+    <t>#algebra</t>
+  </si>
+  <si>
+    <t>#acuteTriangle</t>
+  </si>
+  <si>
+    <t>#artificialIntelligence</t>
+  </si>
+  <si>
+    <t>#absoluteValue</t>
+  </si>
+  <si>
+    <t>#deductiveReasoning</t>
+  </si>
+  <si>
+    <t>#contradictionProof</t>
+  </si>
+  <si>
+    <t>#billion</t>
+  </si>
+  <si>
+    <t>#adaLovelaceMathematician</t>
+  </si>
+  <si>
+    <t>#ed-algebra</t>
+  </si>
+  <si>
+    <t>#approximation</t>
+  </si>
+  <si>
+    <t>#computerScience</t>
+  </si>
+  <si>
+    <t>#growthFactor</t>
+  </si>
+  <si>
+    <t>#arcsine</t>
+  </si>
+  <si>
+    <t>#calculus</t>
+  </si>
+  <si>
+    <t>#algorithm</t>
+  </si>
+  <si>
+    <t>#adjacentAngle</t>
+  </si>
+  <si>
+    <t>#benfordsLaw</t>
+  </si>
+  <si>
+    <t>#addition</t>
+  </si>
+  <si>
+    <t>#discreteMath</t>
+  </si>
+  <si>
+    <t>#converse</t>
+  </si>
+  <si>
+    <t>#celsiusScale</t>
+  </si>
+  <si>
+    <t>#alKhwarizmiMathematician</t>
+  </si>
+  <si>
+    <t>#ed-arithmetic</t>
+  </si>
+  <si>
+    <t>#arrowParadox</t>
+  </si>
+  <si>
+    <t>#cryptocurrency</t>
+  </si>
+  <si>
+    <t>#percentGrowth</t>
+  </si>
+  <si>
+    <t>#arctangent</t>
+  </si>
+  <si>
+    <t>#ceilingFunction</t>
+  </si>
+  <si>
+    <t>#associativeOperation</t>
+  </si>
+  <si>
+    <t>#alternateAngles</t>
+  </si>
+  <si>
+    <t>#bimodalData</t>
+  </si>
+  <si>
+    <t>#arithmetic</t>
+  </si>
+  <si>
+    <t>#graph</t>
+  </si>
+  <si>
+    <t>#fourColorTheorem</t>
+  </si>
+  <si>
+    <t>#centimeter</t>
+  </si>
+  <si>
+    <t>#archimedesMathematician</t>
+  </si>
+  <si>
+    <t>#ed-bases</t>
+  </si>
+  <si>
+    <t>#awesomePlay</t>
+  </si>
+  <si>
+    <t>#cryptography</t>
+  </si>
+  <si>
+    <t>#ruleOf72</t>
+  </si>
+  <si>
+    <t>#cosec</t>
+  </si>
+  <si>
+    <t>#chainRule</t>
+  </si>
+  <si>
+    <t>#asymptote</t>
+  </si>
+  <si>
+    <t>#analyticGeometry</t>
+  </si>
+  <si>
+    <t>#binomial</t>
+  </si>
+  <si>
+    <t>#arithmeticSum</t>
+  </si>
+  <si>
+    <t>#graphInequality</t>
+  </si>
+  <si>
+    <t>#induction</t>
+  </si>
+  <si>
+    <t>#compareFractions</t>
+  </si>
+  <si>
+    <t>#aryabhataMathematican</t>
+  </si>
+  <si>
+    <t>#ed-basics</t>
+  </si>
+  <si>
+    <t>#awesomeRead</t>
+  </si>
+  <si>
+    <t>#encryption</t>
+  </si>
+  <si>
+    <t>#compoundinterest</t>
+  </si>
+  <si>
+    <t>#cosine</t>
+  </si>
+  <si>
+    <t>#continuity</t>
+  </si>
+  <si>
+    <t>#axis</t>
+  </si>
+  <si>
+    <t>#angle</t>
+  </si>
+  <si>
+    <t>#binomialCoefficient</t>
+  </si>
+  <si>
+    <t>#array</t>
+  </si>
+  <si>
+    <t>#graphOfFunction</t>
+  </si>
+  <si>
+    <t>#inequality</t>
+  </si>
+  <si>
+    <t>#convertCelsiusToFahrenheit</t>
+  </si>
+  <si>
+    <t>#auoquamelMathematician</t>
+  </si>
+  <si>
+    <t>#ed-beyond</t>
+  </si>
+  <si>
+    <t>#awesomeVideos</t>
+  </si>
+  <si>
+    <t>#euclideanAlgorithm</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>#cotan</t>
+  </si>
+  <si>
+    <t>#conversionRatio</t>
+  </si>
+  <si>
+    <t>#coefficient</t>
+  </si>
+  <si>
+    <t>#angleAngleSideCongruentTriangles</t>
+  </si>
+  <si>
+    <t>#binomialDistribution</t>
+  </si>
+  <si>
+    <t>#base12</t>
+  </si>
+  <si>
+    <t>#graphTheory</t>
+  </si>
+  <si>
+    <t>#paradox</t>
+  </si>
+  <si>
+    <t>#convertDecimalsToFractions</t>
+  </si>
+  <si>
+    <t>#bhargavaMathematician</t>
+  </si>
+  <si>
+    <t>#ed-decimals</t>
+  </si>
+  <si>
+    <t>#boardGames</t>
+  </si>
+  <si>
+    <t>#informationTheory</t>
+  </si>
+  <si>
+    <t>#coterminalAngles</t>
+  </si>
+  <si>
+    <t>#derivative</t>
+  </si>
+  <si>
+    <t>#commutativeOperation</t>
+  </si>
+  <si>
+    <t>#angleAngleSimilarTriangles</t>
+  </si>
+  <si>
+    <t>#binomialTheorem</t>
+  </si>
+  <si>
+    <t>#base16</t>
+  </si>
+  <si>
+    <t>#logic</t>
+  </si>
+  <si>
+    <t>#pigeonHolePrinciple</t>
+  </si>
+  <si>
+    <t>#convertDecimalToPercent</t>
+  </si>
+  <si>
+    <t>#booleMathematician</t>
+  </si>
+  <si>
+    <t>#ed-division</t>
+  </si>
+  <si>
+    <t>#books</t>
+  </si>
+  <si>
+    <t>#machineLearning</t>
+  </si>
+  <si>
+    <t>#eulersFormula</t>
+  </si>
+  <si>
+    <t>#differenceQuotient</t>
+  </si>
+  <si>
+    <t>#completeSquare</t>
+  </si>
+  <si>
+    <t>#angleSideAngleCongruentTriangles</t>
+  </si>
+  <si>
+    <t>#bivariateData</t>
+  </si>
+  <si>
+    <t>#baseFour</t>
+  </si>
+  <si>
+    <t>#network</t>
+  </si>
+  <si>
+    <t>#proof</t>
+  </si>
+  <si>
+    <t>#convertDegreesToMinutesAndSeconds</t>
+  </si>
+  <si>
+    <t>#cantorMathematician</t>
+  </si>
+  <si>
+    <t>#ed-exploration</t>
+  </si>
+  <si>
+    <t>#calculator</t>
+  </si>
+  <si>
+    <t>#mathematicalSoftware</t>
+  </si>
+  <si>
+    <t>#eulersIdentity</t>
+  </si>
+  <si>
+    <t>#differentialEquation</t>
+  </si>
+  <si>
+    <t>#compoundInequality</t>
+  </si>
+  <si>
+    <t>#angleVertex</t>
+  </si>
+  <si>
+    <t>#boxPlot</t>
+  </si>
+  <si>
+    <t>#baseRepresentationOfNumbers</t>
+  </si>
+  <si>
+    <t>#powerSet</t>
+  </si>
+  <si>
+    <t>#pythagorasProofs</t>
+  </si>
+  <si>
+    <t>#convertFahrenheitToCelsius</t>
+  </si>
+  <si>
+    <t>#cauchyMathematician</t>
+  </si>
+  <si>
+    <t>#ed-infiniteSums</t>
+  </si>
+  <si>
+    <t>#cardTricks</t>
+  </si>
+  <si>
+    <t>#rsaCryptography</t>
+  </si>
+  <si>
+    <t>#fourierAnalysis</t>
+  </si>
+  <si>
+    <t>#discontinuousFunction</t>
+  </si>
+  <si>
+    <t>#compoundInterest</t>
+  </si>
+  <si>
+    <t>#annulus</t>
+  </si>
+  <si>
+    <t>#centralTendency</t>
+  </si>
+  <si>
+    <t>#bigNumbers</t>
+  </si>
+  <si>
+    <t>#set</t>
+  </si>
+  <si>
+    <t>#tautology</t>
+  </si>
+  <si>
+    <t>#convertFractionsToDecimals</t>
+  </si>
+  <si>
+    <t>#cayleyMathematician</t>
+  </si>
+  <si>
+    <t>#ed-irrational</t>
+  </si>
+  <si>
+    <t>#channels</t>
+  </si>
+  <si>
+    <t>#tuple</t>
+  </si>
+  <si>
+    <t>#inverseTrigFunctions</t>
+  </si>
+  <si>
+    <t>#discriminant</t>
+  </si>
+  <si>
+    <t>#concave</t>
+  </si>
+  <si>
+    <t>#apothem</t>
+  </si>
+  <si>
+    <t>#combination</t>
+  </si>
+  <si>
+    <t>#binary</t>
+  </si>
+  <si>
+    <t>#setDifference</t>
+  </si>
+  <si>
+    <t>#theBaselProblem</t>
+  </si>
+  <si>
+    <t>#convertFractionToPercent</t>
+  </si>
+  <si>
+    <t>#dantzigMathematician</t>
+  </si>
+  <si>
+    <t>#ed-multiplication</t>
+  </si>
+  <si>
+    <t>#chess</t>
+  </si>
+  <si>
+    <t>#lawOfCosines</t>
+  </si>
+  <si>
+    <t>#domainRestriction</t>
+  </si>
+  <si>
+    <t>#conicSection</t>
+  </si>
+  <si>
+    <t>#arcLength</t>
+  </si>
+  <si>
+    <t>#combinatorics</t>
+  </si>
+  <si>
+    <t>#commonDenominator</t>
+  </si>
+  <si>
+    <t>#setElement</t>
+  </si>
+  <si>
+    <t>#theorem</t>
+  </si>
+  <si>
+    <t>#convertGramsToKilograms</t>
+  </si>
+  <si>
+    <t>#davidBlackwellMathematican</t>
+  </si>
+  <si>
+    <t>#ed-subtraction</t>
+  </si>
+  <si>
+    <t>#consumerMath</t>
+  </si>
+  <si>
+    <t>#lawOfSines</t>
+  </si>
+  <si>
+    <t>#evenFunction</t>
+  </si>
+  <si>
+    <t>#constant</t>
+  </si>
+  <si>
+    <t>#area</t>
+  </si>
+  <si>
+    <t>#conditionalProbability</t>
+  </si>
+  <si>
+    <t>#commonFactor</t>
+  </si>
+  <si>
+    <t>#subset</t>
+  </si>
+  <si>
+    <t>#unsolvableEquations</t>
+  </si>
+  <si>
+    <t>#convertKilometersToMeters</t>
+  </si>
+  <si>
+    <t>#descartesMathematician</t>
+  </si>
+  <si>
+    <t>#ed-unusual</t>
+  </si>
+  <si>
+    <t>#curveSketching</t>
+  </si>
+  <si>
+    <t>#radian</t>
+  </si>
+  <si>
+    <t>#extrema</t>
+  </si>
+  <si>
+    <t>#convexity</t>
+  </si>
+  <si>
+    <t>#areaBetweenTwoCurves</t>
+  </si>
+  <si>
+    <t>#correlation</t>
+  </si>
+  <si>
+    <t>#complexAddition</t>
+  </si>
+  <si>
+    <t>#union</t>
+  </si>
+  <si>
+    <t>#unsolvedProblems</t>
+  </si>
+  <si>
+    <t>#convertMetersToCentimeters</t>
+  </si>
+  <si>
+    <t>#einsteinPhysicist</t>
+  </si>
+  <si>
+    <t>#explodingDots</t>
+  </si>
+  <si>
+    <t>#dichotomyParadox</t>
+  </si>
+  <si>
+    <t>#sine</t>
+  </si>
+  <si>
+    <t>#floorFunction</t>
+  </si>
+  <si>
+    <t>#coordinate</t>
+  </si>
+  <si>
+    <t>#bisector</t>
+  </si>
+  <si>
+    <t>#covariance</t>
+  </si>
+  <si>
+    <t>#complexArithmetic</t>
+  </si>
+  <si>
+    <t>#vivianiTheorem</t>
+  </si>
+  <si>
+    <t>#convertMinutesAndSecondsToDegrees</t>
+  </si>
+  <si>
+    <t>#emmyNoether</t>
+  </si>
+  <si>
+    <t>#editorsPicks</t>
+  </si>
+  <si>
+    <t>#tan</t>
+  </si>
+  <si>
+    <t>#function</t>
+  </si>
+  <si>
+    <t>#determinant</t>
+  </si>
+  <si>
+    <t>#cartesianPlane</t>
+  </si>
+  <si>
+    <t>#curveFitting</t>
+  </si>
+  <si>
+    <t>#complexConjugate</t>
+  </si>
+  <si>
+    <t>#voronoiDiagram</t>
+  </si>
+  <si>
+    <t>#convertPercentToDecimal</t>
+  </si>
+  <si>
+    <t>#erdosMathematician</t>
+  </si>
+  <si>
+    <t>#experimentsToDeterminePi</t>
+  </si>
+  <si>
+    <t>#tangent</t>
+  </si>
+  <si>
+    <t>#functionDomain</t>
+  </si>
+  <si>
+    <t>#differenceOfSquares</t>
+  </si>
+  <si>
+    <t>#center</t>
+  </si>
+  <si>
+    <t>#data</t>
+  </si>
+  <si>
+    <t>#complexDivision</t>
+  </si>
+  <si>
+    <t>#inequalities</t>
+  </si>
+  <si>
+    <t>#convertPercentToFraction</t>
+  </si>
+  <si>
+    <t>#euclidMathematician</t>
+  </si>
+  <si>
+    <t>#fractal</t>
+  </si>
+  <si>
+    <t>#trigonometry</t>
+  </si>
+  <si>
+    <t>#functionOperations</t>
+  </si>
+  <si>
+    <t>#dragonCurve</t>
+  </si>
+  <si>
+    <t>#centralAngle</t>
+  </si>
+  <si>
+    <t>#dataScience</t>
+  </si>
+  <si>
+    <t>#complexMultiplication</t>
+  </si>
+  <si>
+    <t>#convertPoundsToGrams</t>
+  </si>
+  <si>
+    <t>#eulerMathematician</t>
+  </si>
+  <si>
+    <t>#games</t>
+  </si>
+  <si>
+    <t>#unitCircle</t>
+  </si>
+  <si>
+    <t>#functionRange</t>
+  </si>
+  <si>
+    <t>#ed-polynomials</t>
+  </si>
+  <si>
+    <t>#centralAngleTheorem</t>
+  </si>
+  <si>
+    <t>#density</t>
+  </si>
+  <si>
+    <t>#complexNumber</t>
+  </si>
+  <si>
+    <t>#convertRecurringDecimalToFraction</t>
+  </si>
+  <si>
+    <t>#fermatMathematician</t>
+  </si>
+  <si>
+    <t>#globalMathProject</t>
+  </si>
+  <si>
+    <t>#radians</t>
+  </si>
+  <si>
+    <t>#geometricSequence</t>
+  </si>
+  <si>
+    <t>#epsilon</t>
+  </si>
+  <si>
+    <t>#centroid</t>
+  </si>
+  <si>
+    <t>#dice</t>
+  </si>
+  <si>
+    <t>#compositeNumber</t>
+  </si>
+  <si>
+    <t>#degree</t>
+  </si>
+  <si>
+    <t>#fibonacciMathematician</t>
+  </si>
+  <si>
+    <t>#knotTheory</t>
+  </si>
+  <si>
+    <t>#lawofcosines</t>
+  </si>
+  <si>
+    <t>#geometricSum</t>
+  </si>
+  <si>
+    <t>#equality</t>
+  </si>
+  <si>
+    <t>#cevian</t>
+  </si>
+  <si>
+    <t>#distribution</t>
+  </si>
+  <si>
+    <t>#continuedFractions</t>
+  </si>
+  <si>
+    <t>#diameter</t>
+  </si>
+  <si>
+    <t>#fisherMathematician</t>
+  </si>
+  <si>
+    <t>#mandelbrotSet</t>
+  </si>
+  <si>
+    <t>#lawofsines</t>
+  </si>
+  <si>
+    <t>#harmonicSeries</t>
+  </si>
+  <si>
+    <t>#equation</t>
+  </si>
+  <si>
+    <t>#chord</t>
+  </si>
+  <si>
+    <t>#distributiveProperty</t>
+  </si>
+  <si>
+    <t>#countingNumbers</t>
+  </si>
+  <si>
+    <t>#distanceFormula</t>
+  </si>
+  <si>
+    <t>#fourierMathematician</t>
+  </si>
+  <si>
+    <t>#mathArt</t>
+  </si>
+  <si>
+    <t>#unitcircle</t>
+  </si>
+  <si>
+    <t>#infiniteSeries</t>
+  </si>
+  <si>
+    <t>#equivalence</t>
+  </si>
+  <si>
+    <t>#circle</t>
+  </si>
+  <si>
+    <t>#estimate</t>
+  </si>
+  <si>
+    <t>#cubeRoot</t>
+  </si>
+  <si>
+    <t>#farenheitScale</t>
+  </si>
+  <si>
+    <t>#galoisMathematician</t>
+  </si>
+  <si>
+    <t>#mathPolitics</t>
+  </si>
+  <si>
+    <t>#integral</t>
+  </si>
+  <si>
+    <t>#equivalentEquations</t>
+  </si>
+  <si>
+    <t>#circleArea</t>
+  </si>
+  <si>
+    <t>#event</t>
+  </si>
+  <si>
+    <t>#decimal</t>
+  </si>
+  <si>
+    <t>#gram</t>
+  </si>
+  <si>
+    <t>#gardnerMathematician</t>
+  </si>
+  <si>
+    <t>#mathResearch</t>
+  </si>
+  <si>
+    <t>#limits</t>
+  </si>
+  <si>
+    <t>#equivalentExpressions</t>
+  </si>
+  <si>
+    <t>#circleCircumference</t>
+  </si>
+  <si>
+    <t>#expectation</t>
+  </si>
+  <si>
+    <t>#decimalArithmetic</t>
+  </si>
+  <si>
+    <t>#height</t>
+  </si>
+  <si>
+    <t>#gaussMathematician</t>
+  </si>
+  <si>
+    <t>#mathsAstronomy</t>
+  </si>
+  <si>
+    <t>#log</t>
+  </si>
+  <si>
+    <t>#equivalentFractions</t>
+  </si>
+  <si>
+    <t>#circumcenter</t>
+  </si>
+  <si>
+    <t>#frequency</t>
+  </si>
+  <si>
+    <t>#decimalFraction</t>
+  </si>
+  <si>
+    <t>#kilogram</t>
+  </si>
+  <si>
+    <t>#germainMathematician</t>
+  </si>
+  <si>
+    <t>#mathsMovies</t>
+  </si>
+  <si>
+    <t>#mass</t>
+  </si>
+  <si>
+    <t>#expression</t>
+  </si>
+  <si>
+    <t>#circumference</t>
+  </si>
+  <si>
+    <t>#frequencyDistribution</t>
+  </si>
+  <si>
+    <t>#decimalPlaces</t>
+  </si>
+  <si>
+    <t>#kilometer</t>
+  </si>
+  <si>
+    <t>#godelMathematician</t>
+  </si>
+  <si>
+    <t>#money</t>
+  </si>
+  <si>
+    <t>#maximum</t>
+  </si>
+  <si>
+    <t>#factoringBinomials</t>
+  </si>
+  <si>
+    <t>#circumscribedCircle</t>
+  </si>
+  <si>
+    <t>#geometricMean</t>
+  </si>
+  <si>
+    <t>#denominator</t>
+  </si>
+  <si>
+    <t>#liter</t>
+  </si>
+  <si>
+    <t>#graceHopperMathematician</t>
+  </si>
+  <si>
+    <t>#music</t>
+  </si>
+  <si>
+    <t>#minimum</t>
+  </si>
+  <si>
+    <t>#factoringTrinomials</t>
+  </si>
+  <si>
+    <t>#co-interiorAngles</t>
+  </si>
+  <si>
+    <t>#harmonicMean</t>
+  </si>
+  <si>
+    <t>#digit</t>
+  </si>
+  <si>
+    <t>#measure</t>
+  </si>
+  <si>
+    <t>#hamiltonMathematician</t>
+  </si>
+  <si>
+    <t>#paperFolding</t>
+  </si>
+  <si>
+    <t>#naturalLog</t>
+  </si>
+  <si>
+    <t>#factorTheorem</t>
+  </si>
+  <si>
+    <t>#complementaryAngles</t>
+  </si>
+  <si>
+    <t>#heronianMean</t>
+  </si>
+  <si>
+    <t>#divideByZero</t>
+  </si>
+  <si>
+    <t>#measureAngles</t>
+  </si>
+  <si>
+    <t>#hardyMathematician</t>
+  </si>
+  <si>
+    <t>#protractor</t>
+  </si>
+  <si>
+    <t>#numericalAnalysis</t>
+  </si>
+  <si>
+    <t>#feasibleRegion</t>
+  </si>
+  <si>
+    <t>#compositeShape</t>
+  </si>
+  <si>
+    <t>#histogram</t>
+  </si>
+  <si>
+    <t>#divisability11</t>
+  </si>
+  <si>
+    <t>#measurement</t>
+  </si>
+  <si>
+    <t>#hypatiaMathematician</t>
+  </si>
+  <si>
+    <t>#quadrant</t>
+  </si>
+  <si>
+    <t>#oddFunction</t>
+  </si>
+  <si>
+    <t>#formula</t>
+  </si>
+  <si>
+    <t>#concavePolygon</t>
+  </si>
+  <si>
+    <t>#independentEvents</t>
+  </si>
+  <si>
+    <t>#divisability12</t>
+  </si>
+  <si>
+    <t>#meter</t>
+  </si>
+  <si>
+    <t>#jacobBernoulliMathematician</t>
+  </si>
+  <si>
+    <t>#riddlesAndChallenges</t>
+  </si>
+  <si>
+    <t>#optimization</t>
+  </si>
+  <si>
+    <t>#fundamentalTheoremOfAlgebra</t>
+  </si>
+  <si>
+    <t>#cone</t>
+  </si>
+  <si>
+    <t>#leastSquares</t>
+  </si>
+  <si>
+    <t>#divisibility</t>
+  </si>
+  <si>
+    <t>#metricSystem</t>
+  </si>
+  <si>
+    <t>#jacobiMathematician</t>
+  </si>
+  <si>
+    <t>#rubiksCube</t>
+  </si>
+  <si>
+    <t>#pendulum</t>
+  </si>
+  <si>
+    <t>#greekLetters</t>
+  </si>
+  <si>
+    <t>#coneArea</t>
+  </si>
+  <si>
+    <t>#median</t>
+  </si>
+  <si>
+    <t>#divisibility3</t>
+  </si>
+  <si>
+    <t>#micro</t>
+  </si>
+  <si>
+    <t>#johanBernoulliMathematician</t>
+  </si>
+  <si>
+    <t>#ruler</t>
+  </si>
+  <si>
+    <t>#periodicFunction</t>
+  </si>
+  <si>
+    <t>#hyperbola</t>
+  </si>
+  <si>
+    <t>#coneVolume</t>
+  </si>
+  <si>
+    <t>#modeInStats</t>
+  </si>
+  <si>
+    <t>#divisibility4</t>
+  </si>
+  <si>
+    <t>#milli</t>
+  </si>
+  <si>
+    <t>#juliaRobinsonMathematician</t>
+  </si>
+  <si>
+    <t>#skipCounting</t>
+  </si>
+  <si>
+    <t>#piecewiseFunction</t>
+  </si>
+  <si>
+    <t>#interval</t>
+  </si>
+  <si>
+    <t>#congruence</t>
+  </si>
+  <si>
+    <t>#montyHallProblem</t>
+  </si>
+  <si>
+    <t>#divisibility6</t>
+  </si>
+  <si>
+    <t>#million</t>
+  </si>
+  <si>
+    <t>#kalmanMathematician</t>
+  </si>
+  <si>
+    <t>#towersOfHanoi</t>
+  </si>
+  <si>
+    <t>#rate</t>
+  </si>
+  <si>
+    <t>#inverse</t>
+  </si>
+  <si>
+    <t>#congruentTriangles</t>
+  </si>
+  <si>
+    <t>#multimodalData</t>
+  </si>
+  <si>
+    <t>#divisibility7</t>
+  </si>
+  <si>
+    <t>#nano</t>
+  </si>
+  <si>
+    <t>#karenUhlenbeckMathematician</t>
+  </si>
+  <si>
+    <t>#treeDiagram</t>
+  </si>
+  <si>
+    <t>#recursiveDefinitionOfASequence</t>
+  </si>
+  <si>
+    <t>#leadingTerm</t>
+  </si>
+  <si>
+    <t>#convexPolygon</t>
+  </si>
+  <si>
+    <t>#normalDistribution</t>
+  </si>
+  <si>
+    <t>#divisibility8</t>
+  </si>
+  <si>
+    <t>#ounce</t>
+  </si>
+  <si>
+    <t>#katherineJohnsonMathematician</t>
+  </si>
+  <si>
+    <t>#turn</t>
+  </si>
+  <si>
+    <t>#relatedRates</t>
+  </si>
+  <si>
+    <t>#linear</t>
+  </si>
+  <si>
+    <t>#correspondingAngles</t>
+  </si>
+  <si>
+    <t>#outlier</t>
+  </si>
+  <si>
+    <t>#divisibility9</t>
+  </si>
+  <si>
+    <t>#percent</t>
+  </si>
+  <si>
+    <t>#keplerMathematician</t>
+  </si>
+  <si>
+    <t>#riddlesandchallanges</t>
+  </si>
+  <si>
+    <t>#sequence</t>
+  </si>
+  <si>
+    <t>#mathematicalNotation</t>
+  </si>
+  <si>
+    <t>#crossSection</t>
+  </si>
+  <si>
+    <t>#percentile</t>
+  </si>
+  <si>
+    <t>#division</t>
+  </si>
+  <si>
+    <t>#perimeter</t>
+  </si>
+  <si>
+    <t>#kolmogorovMathematician</t>
+  </si>
+  <si>
+    <t>#riddlesAndChallanges</t>
+  </si>
+  <si>
+    <t>#series</t>
+  </si>
+  <si>
+    <t>#matrix</t>
+  </si>
+  <si>
+    <t>#cube</t>
+  </si>
+  <si>
+    <t>#probability</t>
+  </si>
+  <si>
+    <t>#doubleFactorial</t>
+  </si>
+  <si>
+    <t>#polarCoordinates</t>
+  </si>
+  <si>
+    <t>#lagrangeMathematician</t>
+  </si>
+  <si>
+    <t>#mathresearch</t>
+  </si>
+  <si>
+    <t>#slope</t>
+  </si>
+  <si>
+    <t>#mediant</t>
+  </si>
+  <si>
+    <t>#cubeVolume</t>
+  </si>
+  <si>
+    <t>#pythagoreanMeans</t>
+  </si>
+  <si>
+    <t>#e</t>
+  </si>
+  <si>
+    <t>#pound</t>
+  </si>
+  <si>
+    <t>#laplaceMathematician</t>
+  </si>
+  <si>
+    <t>#solidOfRevolution</t>
+  </si>
+  <si>
+    <t>#monicPolynomial</t>
+  </si>
+  <si>
+    <t>#cubicUnit</t>
+  </si>
+  <si>
+    <t>#quartile</t>
+  </si>
+  <si>
+    <t>#evenNumbers</t>
+  </si>
+  <si>
+    <t>#quadrillion</t>
+  </si>
+  <si>
+    <t>#leibnizThePerson</t>
+  </si>
+  <si>
+    <t>#speed</t>
+  </si>
+  <si>
+    <t>#orderedPair</t>
+  </si>
+  <si>
+    <t>#cuboid</t>
+  </si>
+  <si>
+    <t>#random</t>
+  </si>
+  <si>
+    <t>#exponent</t>
+  </si>
+  <si>
+    <t>#sec</t>
+  </si>
+  <si>
+    <t>#lobachevskyMathematician</t>
+  </si>
+  <si>
+    <t>#transformation</t>
+  </si>
+  <si>
+    <t>#parabola</t>
+  </si>
+  <si>
+    <t>#cuboidVolume</t>
+  </si>
+  <si>
+    <t>#randomSample</t>
+  </si>
+  <si>
+    <t>#factor</t>
+  </si>
+  <si>
+    <t>#squareUnit</t>
+  </si>
+  <si>
+    <t>#mathematicians</t>
+  </si>
+  <si>
+    <t>#velocity</t>
+  </si>
+  <si>
+    <t>#parabolaVertex</t>
+  </si>
+  <si>
+    <t>#curve</t>
+  </si>
+  <si>
+    <t>#range</t>
+  </si>
+  <si>
+    <t>#factorial</t>
+  </si>
+  <si>
+    <t>#timeDistanceSpeed</t>
+  </si>
+  <si>
+    <t>#mirzakhaniMathematician</t>
+  </si>
+  <si>
+    <t>#geometricsum</t>
+  </si>
+  <si>
+    <t>#parentFunction</t>
+  </si>
+  <si>
+    <t>#curvedShape</t>
+  </si>
+  <si>
+    <t>#sample</t>
+  </si>
+  <si>
+    <t>#factorization</t>
+  </si>
+  <si>
+    <t>#timesTable</t>
+  </si>
+  <si>
+    <t>#mongeMathematician</t>
+  </si>
+  <si>
+    <t>#gradient</t>
+  </si>
+  <si>
+    <t>#plot</t>
+  </si>
+  <si>
+    <t>#cylinder</t>
+  </si>
+  <si>
+    <t>#scatterPlot</t>
+  </si>
+  <si>
+    <t>#fastCalculation</t>
+  </si>
+  <si>
+    <t>#trillion</t>
+  </si>
+  <si>
+    <t>#newtonMathematician</t>
+  </si>
+  <si>
+    <t>#polynomial</t>
+  </si>
+  <si>
+    <t>#cylinderArea</t>
+  </si>
+  <si>
+    <t>#simpsonsParadox</t>
+  </si>
+  <si>
+    <t>#fermatLastTheorem</t>
+  </si>
+  <si>
+    <t>#units</t>
+  </si>
+  <si>
+    <t>#pascalMathematician</t>
+  </si>
+  <si>
+    <t>#polynomialDivision</t>
+  </si>
+  <si>
+    <t>#cylinderVolume</t>
+  </si>
+  <si>
+    <t>#standardDeviation</t>
+  </si>
+  <si>
+    <t>#fermatLittleTheorem</t>
+  </si>
+  <si>
+    <t>#weightMeasurement</t>
+  </si>
+  <si>
+    <t>#pearsonMathematician</t>
+  </si>
+  <si>
+    <t>#polynomialEndBehaviour</t>
+  </si>
+  <si>
+    <t>#decagon</t>
+  </si>
+  <si>
+    <t>#statistics</t>
+  </si>
+  <si>
+    <t>#fibonacciNumber</t>
+  </si>
+  <si>
+    <t>#compareDecimals</t>
+  </si>
+  <si>
+    <t>#perelmanMathematician</t>
+  </si>
+  <si>
+    <t>#polynomialMultiplication</t>
+  </si>
+  <si>
+    <t>#dilation</t>
+  </si>
+  <si>
+    <t>#stemAndLeafPlot</t>
+  </si>
+  <si>
+    <t>#fraction</t>
+  </si>
+  <si>
+    <t>#timedistancespeed</t>
+  </si>
+  <si>
+    <t>#poincareMathematician</t>
+  </si>
+  <si>
+    <t>#polynomialOperations</t>
+  </si>
+  <si>
+    <t>#dimension</t>
+  </si>
+  <si>
+    <t>#variance</t>
+  </si>
+  <si>
+    <t>#fractionAddition</t>
+  </si>
+  <si>
+    <t>#weightmeasurement</t>
+  </si>
+  <si>
+    <t>#ponceletMathematician</t>
+  </si>
+  <si>
+    <t>#quadraticEquation</t>
+  </si>
+  <si>
+    <t>#dodecagon</t>
+  </si>
+  <si>
+    <t>#weightedMean</t>
+  </si>
+  <si>
+    <t>#fractionalExponent</t>
+  </si>
+  <si>
+    <t>#ptolemyMathematician</t>
+  </si>
+  <si>
+    <t>#quadraticFormula</t>
+  </si>
+  <si>
+    <t>#dodecahedron</t>
+  </si>
+  <si>
+    <t>#distributiveproperty</t>
+  </si>
+  <si>
+    <t>#fractionArithmetic</t>
+  </si>
+  <si>
+    <t>#pythagorasMathematician</t>
+  </si>
+  <si>
+    <t>#quadratureOfParabola</t>
+  </si>
+  <si>
+    <t>#ellipse</t>
+  </si>
+  <si>
+    <t>#fractionDivision</t>
+  </si>
+  <si>
+    <t>#ramanujan</t>
+  </si>
+  <si>
+    <t>#radicalEquations</t>
+  </si>
+  <si>
+    <t>#ellipseArea</t>
+  </si>
+  <si>
+    <t>#fractionMultiplication</t>
+  </si>
+  <si>
+    <t>#riemannMathematician</t>
+  </si>
+  <si>
+    <t>#scalar</t>
+  </si>
+  <si>
+    <t>#ellipseCircumference</t>
+  </si>
+  <si>
+    <t>#fractionSubtraction</t>
+  </si>
+  <si>
+    <t>#sofiaKovalevskayaMathematician</t>
+  </si>
+  <si>
+    <t>#slantAsymptote</t>
+  </si>
+  <si>
+    <t>#equiangular</t>
+  </si>
+  <si>
+    <t>#frontEndRounding</t>
+  </si>
+  <si>
+    <t>#sylvesterMathematician</t>
+  </si>
+  <si>
+    <t>#solvingEquations</t>
+  </si>
+  <si>
+    <t>#equiangularTriangle</t>
+  </si>
+  <si>
+    <t>#goldenRatio</t>
+  </si>
+  <si>
+    <t>#taoMathematician</t>
+  </si>
+  <si>
+    <t>#syntheticDivision</t>
+  </si>
+  <si>
+    <t>#equilateral</t>
+  </si>
+  <si>
+    <t>#hexagonalNumber</t>
+  </si>
+  <si>
+    <t>#thabitIbnQurraMathematician</t>
+  </si>
+  <si>
+    <t>#systemOfEquations</t>
+  </si>
+  <si>
+    <t>#equilateralTriangle</t>
+  </si>
+  <si>
+    <t>#imaginaryNumber</t>
+  </si>
+  <si>
+    <t>#turingMathematician</t>
+  </si>
+  <si>
+    <t>#tau</t>
+  </si>
+  <si>
+    <t>#exteriorAngleTheorem</t>
+  </si>
+  <si>
+    <t>#improperFraction</t>
+  </si>
+  <si>
+    <t>#vieteMathematician</t>
+  </si>
+  <si>
+    <t>#term</t>
+  </si>
+  <si>
+    <t>#externalAngle</t>
+  </si>
+  <si>
+    <t>#infinity</t>
+  </si>
+  <si>
+    <t>#weierstrassMathematician</t>
+  </si>
+  <si>
+    <t>#translation</t>
+  </si>
+  <si>
+    <t>#geometry</t>
+  </si>
+  <si>
+    <t>#integer</t>
+  </si>
+  <si>
+    <t>#wilesMathematician</t>
+  </si>
+  <si>
+    <t>#trinomial</t>
+  </si>
+  <si>
+    <t>#greatCircle</t>
+  </si>
+  <si>
+    <t>#irrationalNumber</t>
+  </si>
+  <si>
+    <t>#womenMathematicians</t>
+  </si>
+  <si>
+    <t>#variable</t>
+  </si>
+  <si>
+    <t>#hemisphere</t>
+  </si>
+  <si>
+    <t>#latticeMultiplication</t>
+  </si>
+  <si>
+    <t>#zenoMathematician</t>
+  </si>
+  <si>
+    <t>#vector</t>
+  </si>
+  <si>
+    <t>#heptagon</t>
+  </si>
+  <si>
+    <t>#lawOfLargeNumbers</t>
+  </si>
+  <si>
+    <t>#heronMathematician</t>
+  </si>
+  <si>
+    <t>#vietasFormulas</t>
+  </si>
+  <si>
+    <t>#heronsFormula</t>
+  </si>
+  <si>
+    <t>#lcm</t>
+  </si>
+  <si>
+    <t>#hilbertMathematician</t>
+  </si>
+  <si>
+    <t>#quadraticequation</t>
+  </si>
+  <si>
+    <t>#hexagon</t>
+  </si>
+  <si>
+    <t>#longDivision</t>
+  </si>
+  <si>
+    <t>#quadraticformula</t>
+  </si>
+  <si>
+    <t>#hingeTheorem</t>
+  </si>
+  <si>
+    <t>#longMultiplication</t>
+  </si>
+  <si>
+    <t>#polynomials</t>
+  </si>
+  <si>
+    <t>#hypotenuse</t>
+  </si>
+  <si>
+    <t>#magnitudeOfComplexNumber</t>
+  </si>
+  <si>
+    <t>#terms</t>
+  </si>
+  <si>
+    <t>#icosahedron</t>
+  </si>
+  <si>
+    <t>#mentalArithmetic</t>
+  </si>
+  <si>
+    <t>#xaxis</t>
+  </si>
+  <si>
+    <t>#incenter</t>
+  </si>
+  <si>
+    <t>#mixedNumber</t>
+  </si>
+  <si>
+    <t>#inscribedAngle</t>
+  </si>
+  <si>
+    <t>#multiple</t>
+  </si>
+  <si>
+    <t>#inscribedCircle</t>
+  </si>
+  <si>
+    <t>#multiplication</t>
+  </si>
+  <si>
+    <t>#interiorAngleSumForQuadrilateral</t>
+  </si>
+  <si>
+    <t>#multiplyBinomials</t>
+  </si>
+  <si>
+    <t>#interiorAngleSumForTriangle</t>
+  </si>
+  <si>
+    <t>#negativeAddition</t>
+  </si>
+  <si>
+    <t>#internalAngle</t>
+  </si>
+  <si>
+    <t>#negativeDivision</t>
+  </si>
+  <si>
+    <t>#intersectingLines</t>
+  </si>
+  <si>
+    <t>#negativeExponent</t>
+  </si>
+  <si>
+    <t>#intersection</t>
+  </si>
+  <si>
+    <t>#negativeMultiplication</t>
+  </si>
+  <si>
+    <t>#isoscelesTrapezoid</t>
+  </si>
+  <si>
+    <t>#negativeNumber</t>
+  </si>
+  <si>
+    <t>#isoscelesTriangle</t>
+  </si>
+  <si>
+    <t>#negativeSubtraction</t>
+  </si>
+  <si>
+    <t>#kite</t>
+  </si>
+  <si>
+    <t>#nonTerminatingDecimal</t>
+  </si>
+  <si>
+    <t>#kiteArea</t>
+  </si>
+  <si>
+    <t>#number</t>
+  </si>
+  <si>
+    <t>#length</t>
+  </si>
+  <si>
+    <t>#numberLine</t>
+  </si>
+  <si>
+    <t>#line</t>
+  </si>
+  <si>
+    <t>#numberTheory</t>
+  </si>
+  <si>
+    <t>#lineFormula</t>
+  </si>
+  <si>
+    <t>#numeral</t>
+  </si>
+  <si>
+    <t>#lineSegment</t>
+  </si>
+  <si>
+    <t>#numerator</t>
+  </si>
+  <si>
+    <t>#midpoint</t>
+  </si>
+  <si>
+    <t>#oddNumber</t>
+  </si>
+  <si>
+    <t>#mobiusStrip</t>
+  </si>
+  <si>
+    <t>#odds</t>
+  </si>
+  <si>
+    <t>#nonagon</t>
+  </si>
+  <si>
+    <t>#operation</t>
+  </si>
+  <si>
+    <t>#nonEuclideanGeometries</t>
+  </si>
+  <si>
+    <t>#orderOfOperations</t>
+  </si>
+  <si>
+    <t>#obliqueCircularCone</t>
+  </si>
+  <si>
+    <t>#parity</t>
+  </si>
+  <si>
+    <t>#obliqueTriangle</t>
+  </si>
+  <si>
+    <t>#partition</t>
+  </si>
+  <si>
+    <t>#obtuseAngle</t>
+  </si>
+  <si>
+    <t>#perfectNumber</t>
+  </si>
+  <si>
+    <t>#obtuseTriangle</t>
+  </si>
+  <si>
+    <t>#perfectSquare</t>
+  </si>
+  <si>
+    <t>#octagon</t>
+  </si>
+  <si>
+    <t>#permutation</t>
+  </si>
+  <si>
+    <t>#octahedron</t>
+  </si>
+  <si>
+    <t>#pi</t>
+  </si>
+  <si>
+    <t>#orthocenter</t>
+  </si>
+  <si>
+    <t>#placeValue</t>
+  </si>
+  <si>
+    <t>#parallelepiped</t>
+  </si>
+  <si>
+    <t>#positiveNumber</t>
+  </si>
+  <si>
+    <t>#parallelLines</t>
+  </si>
+  <si>
+    <t>#power</t>
+  </si>
+  <si>
+    <t>#parallelogram</t>
+  </si>
+  <si>
+    <t>#primeFactor</t>
+  </si>
+  <si>
+    <t>#parallelogramArea</t>
+  </si>
+  <si>
+    <t>#primeFactorization</t>
+  </si>
+  <si>
+    <t>#parallelogramDiagonal</t>
+  </si>
+  <si>
+    <t>#primeNumber</t>
+  </si>
+  <si>
+    <t>#pascalTriangle</t>
+  </si>
+  <si>
+    <t>#product</t>
+  </si>
+  <si>
+    <t>#pentagon</t>
+  </si>
+  <si>
+    <t>#proportion</t>
+  </si>
+  <si>
+    <t>#perpendicular</t>
+  </si>
+  <si>
+    <t>#proportional</t>
+  </si>
+  <si>
+    <t>#perpendicularBisector</t>
+  </si>
+  <si>
+    <t>#pythagoreanTriple</t>
+  </si>
+  <si>
+    <t>#plane</t>
+  </si>
+  <si>
+    <t>#quotient</t>
+  </si>
+  <si>
+    <t>#platonicSolids</t>
+  </si>
+  <si>
+    <t>#ratio</t>
+  </si>
+  <si>
+    <t>#point</t>
+  </si>
+  <si>
+    <t>#rationalEquation</t>
+  </si>
+  <si>
+    <t>#polygon</t>
+  </si>
+  <si>
+    <t>#rationalFunction</t>
+  </si>
+  <si>
+    <t>#polygonArea</t>
+  </si>
+  <si>
+    <t>#rationalNumber</t>
+  </si>
+  <si>
+    <t>#polygonExteriorAngle</t>
+  </si>
+  <si>
+    <t>#rationalRootTheorem</t>
+  </si>
+  <si>
+    <t>#polygonInteriorAngle</t>
+  </si>
+  <si>
+    <t>#realNumber</t>
+  </si>
+  <si>
+    <t>#polyhedron</t>
+  </si>
+  <si>
+    <t>#reciprocal</t>
+  </si>
+  <si>
+    <t>#polytope</t>
+  </si>
+  <si>
+    <t>#relatedDenominators</t>
+  </si>
+  <si>
+    <t>#prism</t>
+  </si>
+  <si>
+    <t>#remainder</t>
+  </si>
+  <si>
+    <t>#prismVolume</t>
+  </si>
+  <si>
+    <t>#remainderTheorem</t>
+  </si>
+  <si>
+    <t>#pyramid</t>
+  </si>
+  <si>
+    <t>#repeatingDecimal</t>
+  </si>
+  <si>
+    <t>#pyramidVolume</t>
+  </si>
+  <si>
+    <t>#romanNumerals</t>
+  </si>
+  <si>
+    <t>#pythagorasTheorem</t>
+  </si>
+  <si>
+    <t>#root</t>
+  </si>
+  <si>
+    <t>#quadrilateral</t>
+  </si>
+  <si>
+    <t>#root2</t>
+  </si>
+  <si>
+    <t>#radius</t>
+  </si>
+  <si>
+    <t>#rounding</t>
+  </si>
+  <si>
+    <t>#ray</t>
+  </si>
+  <si>
+    <t>#scientificNotation</t>
+  </si>
+  <si>
+    <t>#rectangle</t>
+  </si>
+  <si>
+    <t>#sieveOfEratosthenes</t>
+  </si>
+  <si>
+    <t>#rectangleArea</t>
+  </si>
+  <si>
+    <t>#simplifyFractions</t>
+  </si>
+  <si>
+    <t>#rectangleDiagonal</t>
+  </si>
+  <si>
+    <t>#simplifyRadical</t>
+  </si>
+  <si>
+    <t>#rectangularPrism</t>
+  </si>
+  <si>
+    <t>#squareRoot</t>
+  </si>
+  <si>
+    <t>#rectangularPrismVolume</t>
+  </si>
+  <si>
+    <t>#stickMultiplication</t>
+  </si>
+  <si>
+    <t>#reflection</t>
+  </si>
+  <si>
+    <t>#subtraction</t>
+  </si>
+  <si>
+    <t>#reflexAngle</t>
+  </si>
+  <si>
+    <t>#sum</t>
+  </si>
+  <si>
+    <t>#regularPolygon</t>
+  </si>
+  <si>
+    <t>#surd</t>
+  </si>
+  <si>
+    <t>#regularShape</t>
+  </si>
+  <si>
+    <t>#terminatingDecimal</t>
+  </si>
+  <si>
+    <t>#rhombicDodecahedron</t>
+  </si>
+  <si>
+    <t>#tinyNumbers</t>
+  </si>
+  <si>
+    <t>#rhombus</t>
+  </si>
+  <si>
+    <t>#transcendental</t>
+  </si>
+  <si>
+    <t>#rhombusArea</t>
+  </si>
+  <si>
+    <t>#twinPrimes</t>
+  </si>
+  <si>
+    <t>#rhombusDiagonal</t>
+  </si>
+  <si>
+    <t>#ulamSpiral</t>
+  </si>
+  <si>
+    <t>#rightAngle</t>
+  </si>
+  <si>
+    <t>#unitFraction</t>
+  </si>
+  <si>
+    <t>#rightCircularCone</t>
+  </si>
+  <si>
+    <t>#zero</t>
+  </si>
+  <si>
+    <t>#rightTriangle</t>
+  </si>
+  <si>
+    <t>#zeroDividedByZero</t>
+  </si>
+  <si>
+    <t>#rotation</t>
+  </si>
+  <si>
+    <t>#zeroPower</t>
+  </si>
+  <si>
+    <t>#rotationalSymmetry</t>
+  </si>
+  <si>
+    <t>#zeroToPowerZero</t>
+  </si>
+  <si>
+    <t>#scaleneTriangle</t>
+  </si>
+  <si>
+    <t>#gcd</t>
+  </si>
+  <si>
+    <t>#scutoid</t>
+  </si>
+  <si>
+    <t>#mod</t>
+  </si>
+  <si>
+    <t>#sector</t>
+  </si>
+  <si>
+    <t>#arithmeticsum</t>
+  </si>
+  <si>
+    <t>#sectorArea</t>
+  </si>
+  <si>
+    <t>#fractions</t>
+  </si>
+  <si>
+    <t>#segment</t>
+  </si>
+  <si>
+    <t>#baserepresentationofnumbers</t>
+  </si>
+  <si>
+    <t>#shape</t>
+  </si>
+  <si>
+    <t>#complexnumbers</t>
+  </si>
+  <si>
+    <t>#sideAngleSideCongruentTriangles</t>
+  </si>
+  <si>
+    <t>#fractionsubtraction</t>
+  </si>
+  <si>
+    <t>#sideSideAngleTriangleProblems</t>
+  </si>
+  <si>
+    <t>#imaginarynumber</t>
+  </si>
+  <si>
+    <t>#sideSideSideCongruentTriangles</t>
+  </si>
+  <si>
+    <t>#numbers</t>
+  </si>
+  <si>
+    <t>#sierpinskiTriangle</t>
+  </si>
+  <si>
+    <t>#similarity</t>
+  </si>
+  <si>
+    <t>#similarTriangles</t>
+  </si>
+  <si>
+    <t>#sixtyDegreesAngle</t>
+  </si>
+  <si>
+    <t>#skewLines</t>
+  </si>
+  <si>
+    <t>#slantHeight</t>
+  </si>
+  <si>
+    <t>#solid</t>
+  </si>
+  <si>
+    <t>#spaceDiagonal</t>
+  </si>
+  <si>
+    <t>#sphere</t>
+  </si>
+  <si>
+    <t>#sphereArea</t>
+  </si>
+  <si>
+    <t>#sphereVolume</t>
+  </si>
+  <si>
+    <t>#square</t>
+  </si>
+  <si>
+    <t>#squareArea</t>
+  </si>
+  <si>
+    <t>#stewartsTheorem</t>
+  </si>
+  <si>
+    <t>#straightAngle</t>
+  </si>
+  <si>
+    <t>#supplementaryAngles</t>
+  </si>
+  <si>
+    <t>#surfaceArea</t>
+  </si>
+  <si>
+    <t>#symmetry</t>
+  </si>
+  <si>
+    <t>#thirtyDegreesAngle</t>
+  </si>
+  <si>
+    <t>#thirtySixtyNinetyTriangle</t>
+  </si>
+  <si>
+    <t>#topology</t>
+  </si>
+  <si>
+    <t>#transversal</t>
+  </si>
+  <si>
+    <t>#trapezoid</t>
+  </si>
+  <si>
+    <t>#trapezoidArea</t>
+  </si>
+  <si>
+    <t>#trapezoidHeight</t>
+  </si>
+  <si>
+    <t>#triangle</t>
+  </si>
+  <si>
+    <t>#triangleArea</t>
+  </si>
+  <si>
+    <t>#triangleHeight</t>
+  </si>
+  <si>
+    <t>#triangleInequality</t>
+  </si>
+  <si>
+    <t>#triangleMedian</t>
+  </si>
+  <si>
+    <t>#triangleTheorems</t>
+  </si>
+  <si>
+    <t>#triangularPrism</t>
+  </si>
+  <si>
+    <t>#vertex</t>
+  </si>
+  <si>
+    <t>#vivanisCurve</t>
+  </si>
+  <si>
+    <t>#volume</t>
+  </si>
+  <si>
+    <t>#rectanglearea</t>
+  </si>
+  <si>
+    <t>#analyticgeometry</t>
+  </si>
+  <si>
+    <t>#circlearea</t>
+  </si>
+  <si>
+    <t>#fortyFiveDegreesAngle</t>
+  </si>
+  <si>
+    <t>#fortyFiveFortyFiveNinetyTriangle</t>
+  </si>
+  <si>
+    <t>#hexagons</t>
+  </si>
+  <si>
+    <t>#pythagorastheorem</t>
+  </si>
+  <si>
+    <t>#quadrilaterals</t>
+  </si>
+  <si>
+    <t>#trianglearea</t>
   </si>
 </sst>
 </file>
@@ -2828,8 +5190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F02437-6F57-48B7-8E46-9CBB79D6822F}">
   <dimension ref="A1:O199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7529,4 +9891,2908 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F0C437-2310-4908-B649-A4060BEA2551}">
+  <dimension ref="A1:N199"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E2" t="s">
+        <v>803</v>
+      </c>
+      <c r="F2" t="s">
+        <v>804</v>
+      </c>
+      <c r="G2" t="s">
+        <v>805</v>
+      </c>
+      <c r="H2" t="s">
+        <v>806</v>
+      </c>
+      <c r="I2" t="s">
+        <v>807</v>
+      </c>
+      <c r="J2" t="s">
+        <v>808</v>
+      </c>
+      <c r="K2" t="s">
+        <v>809</v>
+      </c>
+      <c r="L2" t="s">
+        <v>810</v>
+      </c>
+      <c r="M2" t="s">
+        <v>811</v>
+      </c>
+      <c r="N2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>813</v>
+      </c>
+      <c r="B3" t="s">
+        <v>814</v>
+      </c>
+      <c r="C3" t="s">
+        <v>815</v>
+      </c>
+      <c r="D3" t="s">
+        <v>816</v>
+      </c>
+      <c r="E3" t="s">
+        <v>817</v>
+      </c>
+      <c r="F3" t="s">
+        <v>818</v>
+      </c>
+      <c r="G3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H3" t="s">
+        <v>820</v>
+      </c>
+      <c r="I3" t="s">
+        <v>821</v>
+      </c>
+      <c r="J3" t="s">
+        <v>822</v>
+      </c>
+      <c r="K3" t="s">
+        <v>823</v>
+      </c>
+      <c r="L3" t="s">
+        <v>824</v>
+      </c>
+      <c r="M3" t="s">
+        <v>825</v>
+      </c>
+      <c r="N3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B4" t="s">
+        <v>828</v>
+      </c>
+      <c r="C4" t="s">
+        <v>829</v>
+      </c>
+      <c r="D4" t="s">
+        <v>830</v>
+      </c>
+      <c r="E4" t="s">
+        <v>831</v>
+      </c>
+      <c r="F4" t="s">
+        <v>832</v>
+      </c>
+      <c r="G4" t="s">
+        <v>833</v>
+      </c>
+      <c r="H4" t="s">
+        <v>834</v>
+      </c>
+      <c r="I4" t="s">
+        <v>835</v>
+      </c>
+      <c r="J4" t="s">
+        <v>836</v>
+      </c>
+      <c r="K4" t="s">
+        <v>837</v>
+      </c>
+      <c r="L4" t="s">
+        <v>838</v>
+      </c>
+      <c r="M4" t="s">
+        <v>839</v>
+      </c>
+      <c r="N4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>841</v>
+      </c>
+      <c r="B5" t="s">
+        <v>842</v>
+      </c>
+      <c r="C5" t="s">
+        <v>843</v>
+      </c>
+      <c r="D5" t="s">
+        <v>844</v>
+      </c>
+      <c r="E5" t="s">
+        <v>845</v>
+      </c>
+      <c r="F5" t="s">
+        <v>846</v>
+      </c>
+      <c r="G5" t="s">
+        <v>847</v>
+      </c>
+      <c r="H5" t="s">
+        <v>848</v>
+      </c>
+      <c r="I5" t="s">
+        <v>849</v>
+      </c>
+      <c r="J5" t="s">
+        <v>850</v>
+      </c>
+      <c r="K5" t="s">
+        <v>851</v>
+      </c>
+      <c r="L5" t="s">
+        <v>852</v>
+      </c>
+      <c r="M5" t="s">
+        <v>853</v>
+      </c>
+      <c r="N5" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>855</v>
+      </c>
+      <c r="B6" t="s">
+        <v>856</v>
+      </c>
+      <c r="C6" t="s">
+        <v>857</v>
+      </c>
+      <c r="D6" t="s">
+        <v>858</v>
+      </c>
+      <c r="E6" t="s">
+        <v>859</v>
+      </c>
+      <c r="F6" t="s">
+        <v>860</v>
+      </c>
+      <c r="G6" t="s">
+        <v>861</v>
+      </c>
+      <c r="H6" t="s">
+        <v>862</v>
+      </c>
+      <c r="I6" t="s">
+        <v>863</v>
+      </c>
+      <c r="J6" t="s">
+        <v>864</v>
+      </c>
+      <c r="K6" t="s">
+        <v>865</v>
+      </c>
+      <c r="L6" t="s">
+        <v>866</v>
+      </c>
+      <c r="M6" t="s">
+        <v>867</v>
+      </c>
+      <c r="N6" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>869</v>
+      </c>
+      <c r="B7" t="s">
+        <v>870</v>
+      </c>
+      <c r="C7" t="s">
+        <v>871</v>
+      </c>
+      <c r="D7" t="s">
+        <v>872</v>
+      </c>
+      <c r="E7" t="s">
+        <v>873</v>
+      </c>
+      <c r="F7" t="s">
+        <v>874</v>
+      </c>
+      <c r="G7" t="s">
+        <v>875</v>
+      </c>
+      <c r="H7" t="s">
+        <v>876</v>
+      </c>
+      <c r="I7" t="s">
+        <v>877</v>
+      </c>
+      <c r="J7" t="s">
+        <v>878</v>
+      </c>
+      <c r="K7" t="s">
+        <v>879</v>
+      </c>
+      <c r="L7" t="s">
+        <v>880</v>
+      </c>
+      <c r="M7" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>883</v>
+      </c>
+      <c r="B8" t="s">
+        <v>884</v>
+      </c>
+      <c r="C8" t="s">
+        <v>885</v>
+      </c>
+      <c r="D8" t="s">
+        <v>886</v>
+      </c>
+      <c r="E8" t="s">
+        <v>887</v>
+      </c>
+      <c r="F8" t="s">
+        <v>888</v>
+      </c>
+      <c r="G8" t="s">
+        <v>889</v>
+      </c>
+      <c r="H8" t="s">
+        <v>890</v>
+      </c>
+      <c r="I8" t="s">
+        <v>891</v>
+      </c>
+      <c r="J8" t="s">
+        <v>892</v>
+      </c>
+      <c r="K8" t="s">
+        <v>893</v>
+      </c>
+      <c r="L8" t="s">
+        <v>894</v>
+      </c>
+      <c r="M8" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>896</v>
+      </c>
+      <c r="B9" t="s">
+        <v>897</v>
+      </c>
+      <c r="C9" t="s">
+        <v>898</v>
+      </c>
+      <c r="D9" t="s">
+        <v>899</v>
+      </c>
+      <c r="E9" t="s">
+        <v>900</v>
+      </c>
+      <c r="F9" t="s">
+        <v>901</v>
+      </c>
+      <c r="G9" t="s">
+        <v>902</v>
+      </c>
+      <c r="H9" t="s">
+        <v>903</v>
+      </c>
+      <c r="I9" t="s">
+        <v>904</v>
+      </c>
+      <c r="J9" t="s">
+        <v>905</v>
+      </c>
+      <c r="K9" t="s">
+        <v>906</v>
+      </c>
+      <c r="L9" t="s">
+        <v>907</v>
+      </c>
+      <c r="M9" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>909</v>
+      </c>
+      <c r="B10" t="s">
+        <v>910</v>
+      </c>
+      <c r="C10" t="s">
+        <v>911</v>
+      </c>
+      <c r="D10" t="s">
+        <v>912</v>
+      </c>
+      <c r="E10" t="s">
+        <v>913</v>
+      </c>
+      <c r="F10" t="s">
+        <v>914</v>
+      </c>
+      <c r="G10" t="s">
+        <v>915</v>
+      </c>
+      <c r="H10" t="s">
+        <v>916</v>
+      </c>
+      <c r="I10" t="s">
+        <v>917</v>
+      </c>
+      <c r="J10" t="s">
+        <v>918</v>
+      </c>
+      <c r="K10" t="s">
+        <v>919</v>
+      </c>
+      <c r="L10" t="s">
+        <v>920</v>
+      </c>
+      <c r="M10" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>922</v>
+      </c>
+      <c r="B11" t="s">
+        <v>923</v>
+      </c>
+      <c r="C11" t="s">
+        <v>924</v>
+      </c>
+      <c r="D11" t="s">
+        <v>925</v>
+      </c>
+      <c r="E11" t="s">
+        <v>926</v>
+      </c>
+      <c r="F11" t="s">
+        <v>927</v>
+      </c>
+      <c r="G11" t="s">
+        <v>928</v>
+      </c>
+      <c r="H11" t="s">
+        <v>929</v>
+      </c>
+      <c r="I11" t="s">
+        <v>930</v>
+      </c>
+      <c r="J11" t="s">
+        <v>931</v>
+      </c>
+      <c r="K11" t="s">
+        <v>932</v>
+      </c>
+      <c r="L11" t="s">
+        <v>933</v>
+      </c>
+      <c r="M11" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>935</v>
+      </c>
+      <c r="B12" t="s">
+        <v>936</v>
+      </c>
+      <c r="C12" t="s">
+        <v>937</v>
+      </c>
+      <c r="D12" t="s">
+        <v>938</v>
+      </c>
+      <c r="E12" t="s">
+        <v>939</v>
+      </c>
+      <c r="F12" t="s">
+        <v>940</v>
+      </c>
+      <c r="G12" t="s">
+        <v>941</v>
+      </c>
+      <c r="H12" t="s">
+        <v>942</v>
+      </c>
+      <c r="I12" t="s">
+        <v>943</v>
+      </c>
+      <c r="J12" t="s">
+        <v>944</v>
+      </c>
+      <c r="K12" t="s">
+        <v>945</v>
+      </c>
+      <c r="L12" t="s">
+        <v>946</v>
+      </c>
+      <c r="M12" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>948</v>
+      </c>
+      <c r="B13" t="s">
+        <v>949</v>
+      </c>
+      <c r="C13" t="s">
+        <v>950</v>
+      </c>
+      <c r="D13" t="s">
+        <v>951</v>
+      </c>
+      <c r="E13" t="s">
+        <v>952</v>
+      </c>
+      <c r="F13" t="s">
+        <v>953</v>
+      </c>
+      <c r="G13" t="s">
+        <v>954</v>
+      </c>
+      <c r="H13" t="s">
+        <v>955</v>
+      </c>
+      <c r="I13" t="s">
+        <v>956</v>
+      </c>
+      <c r="J13" t="s">
+        <v>957</v>
+      </c>
+      <c r="K13" t="s">
+        <v>958</v>
+      </c>
+      <c r="L13" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>960</v>
+      </c>
+      <c r="B14" t="s">
+        <v>961</v>
+      </c>
+      <c r="C14" t="s">
+        <v>962</v>
+      </c>
+      <c r="D14" t="s">
+        <v>963</v>
+      </c>
+      <c r="E14" t="s">
+        <v>964</v>
+      </c>
+      <c r="F14" t="s">
+        <v>965</v>
+      </c>
+      <c r="G14" t="s">
+        <v>966</v>
+      </c>
+      <c r="H14" t="s">
+        <v>967</v>
+      </c>
+      <c r="I14" t="s">
+        <v>968</v>
+      </c>
+      <c r="J14" t="s">
+        <v>969</v>
+      </c>
+      <c r="K14" t="s">
+        <v>970</v>
+      </c>
+      <c r="L14" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>972</v>
+      </c>
+      <c r="B15" t="s">
+        <v>973</v>
+      </c>
+      <c r="C15" t="s">
+        <v>974</v>
+      </c>
+      <c r="D15" t="s">
+        <v>975</v>
+      </c>
+      <c r="E15" t="s">
+        <v>976</v>
+      </c>
+      <c r="F15" t="s">
+        <v>977</v>
+      </c>
+      <c r="G15" t="s">
+        <v>978</v>
+      </c>
+      <c r="H15" t="s">
+        <v>979</v>
+      </c>
+      <c r="I15" t="s">
+        <v>980</v>
+      </c>
+      <c r="J15" t="s">
+        <v>981</v>
+      </c>
+      <c r="K15" t="s">
+        <v>982</v>
+      </c>
+      <c r="L15" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>984</v>
+      </c>
+      <c r="B16" t="s">
+        <v>985</v>
+      </c>
+      <c r="C16" t="s">
+        <v>986</v>
+      </c>
+      <c r="D16" t="s">
+        <v>987</v>
+      </c>
+      <c r="E16" t="s">
+        <v>988</v>
+      </c>
+      <c r="F16" t="s">
+        <v>989</v>
+      </c>
+      <c r="G16" t="s">
+        <v>990</v>
+      </c>
+      <c r="H16" t="s">
+        <v>991</v>
+      </c>
+      <c r="I16" t="s">
+        <v>992</v>
+      </c>
+      <c r="J16" t="s">
+        <v>993</v>
+      </c>
+      <c r="K16" t="s">
+        <v>994</v>
+      </c>
+      <c r="L16" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>996</v>
+      </c>
+      <c r="B17" t="s">
+        <v>997</v>
+      </c>
+      <c r="C17" t="s">
+        <v>998</v>
+      </c>
+      <c r="D17" t="s">
+        <v>999</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>882</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1086</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>882</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>882</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>882</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1110</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>882</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>882</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1126</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>882</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1134</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>882</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>882</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1150</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>882</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1158</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>882</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>882</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1174</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>882</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1181</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>882</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>882</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>882</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1206</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>882</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1214</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>882</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>882</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>882</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>882</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>882</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>882</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>882</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>882</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1288</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1306</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1311</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1315</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1319</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1323</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1327</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1339</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1343</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1347</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1351</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1355</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1363</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="133" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="134" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D134" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="135" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D135" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="136" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D136" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="137" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D137" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="138" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D138" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="139" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D139" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="140" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D141" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D142" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D143" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F143" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="144" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D144" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="145" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D145" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F146" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="147" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D147" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="148" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D148" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F148" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="149" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D149" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="150" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="151" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D151" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="152" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D152" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="153" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D153" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="154" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D154" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="155" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D155" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="156" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D156" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="157" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D157" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="158" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D158" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="159" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D159" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="160" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D160" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D161" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D162" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D163" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D164" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D165" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D166" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D167" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D168" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D169" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D170" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D171" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D172" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D173" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D174" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D175" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D176" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D177" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D178" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D179" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D180" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D181" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D182" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D183" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D184" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D185" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D186" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D187" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D188" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D189" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D190" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D191" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D192" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D193" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D194" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D195" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D196" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D197" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D198" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D199" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Hashtags.xlsx
+++ b/Data/Hashtags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s157165\Documents\Jaar 5 2019-2020 Master\Internship Australia\InternshipOneOnEpsilon\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD48F53-879D-46F7-A7E0-D1811C5EAD5A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0A1EFE-A56C-4451-A164-DEB93E2EFBD7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{03EEA932-B2E2-455D-8D16-46A831B31555}"/>
   </bookViews>
@@ -2346,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0169DE-9321-4416-B3C2-4B60D6FCFF10}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:B82"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4536,8 +4536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95734453-97CD-4121-968D-832BD54966BB}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
